--- a/Predictions/Week 10/Week 10.xlsx
+++ b/Predictions/Week 10/Week 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83EA1D-FDEA-45DB-AEF1-89CF33751165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97638F61-C8F9-496C-8BB5-92705AFAAFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +194,14 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -238,11 +244,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +282,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +605,7 @@
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -623,21 +644,21 @@
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -646,37 +667,37 @@
       <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -695,11 +716,11 @@
       <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -718,34 +739,34 @@
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -761,14 +782,14 @@
       <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -784,27 +805,27 @@
       <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -814,14 +835,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -830,14 +851,14 @@
       <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
@@ -847,20 +868,20 @@
       <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -876,21 +897,21 @@
       <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -899,35 +920,53 @@
       <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="H16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
